--- a/creguian/checklist.xlsx
+++ b/creguian/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/creguian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81705903-A493-7D48-B859-4B80035A4F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842B7AF-13B0-3446-BE75-3AF95762F2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{9D66863F-D33E-B240-A0D9-28B4800184E4}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>Creguian Tabletalk RPG in Far-Future: A Introduce Set of Creguin World</t>
   </si>
   <si>
-    <t>Creguian Tabletalk RPG in Far-Future: A Supliment of Frontier Starship Adventure</t>
-  </si>
-  <si>
     <t>Creguian: Crisis Point</t>
+  </si>
+  <si>
+    <t>Creguian Tabletalk RPG in Far-Future: A Supplement of Frontier Starship Adventure</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>

--- a/creguian/checklist.xlsx
+++ b/creguian/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/creguian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842B7AF-13B0-3446-BE75-3AF95762F2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE6BD9-40EC-2543-86A6-FB05CE06F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{9D66863F-D33E-B240-A0D9-28B4800184E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Creguian Tabletalk RPG in Far-Future: A Supplement of Frontier Starship Adventure</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/creguian/checklist.xlsx
+++ b/creguian/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/creguian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE6BD9-40EC-2543-86A6-FB05CE06F8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090B4731-819E-AC4A-8852-682FDA24F6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{9D66863F-D33E-B240-A0D9-28B4800184E4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>supplement</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>T102</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26561AF-E812-714D-83C3-5A5931F6C570}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +469,7 @@
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +488,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -499,8 +511,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1993</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -516,8 +534,14 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1995</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
